--- a/wordlists/radicals.xlsx
+++ b/wordlists/radicals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptsoftware362-my.sharepoint.com/personal/danpm_fpt_com/Documents/Personal/Playground/new_make_pleco_dicts/wordlists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptsoftware362-my.sharepoint.com/personal/danpm_fpt_com/Documents/Personal/Playground/make_pleco_dicts/wordlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{97BDCAAD-3714-452E-A882-6472E6EC40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F1F83AF-ECFA-4289-B131-51B1418A3CD6}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{97BDCAAD-3714-452E-A882-6472E6EC40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C51AA5C-BCD3-4073-A865-A55988578615}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{AF600D29-96A0-4E7A-80F4-8D971D777AB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{AF600D29-96A0-4E7A-80F4-8D971D777AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1644">
   <si>
     <t>Radical forms</t>
   </si>
@@ -4285,9 +4285,6 @@
     </r>
   </si>
   <si>
-    <t>xǐ/xì</t>
-  </si>
-  <si>
     <r>
       <t>亡、匹、匼、匽</t>
     </r>
@@ -4412,9 +4409,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>hǎn[1]</t>
   </si>
   <si>
     <r>
@@ -11058,6 +11052,9 @@
       </rPr>
       <t xml:space="preserve">,火字旁 </t>
     </r>
+  </si>
+  <si>
+    <t>xǐ</t>
   </si>
 </sst>
 </file>
@@ -11191,7 +11188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11227,14 +11224,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11243,6 +11236,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11564,12 +11558,12 @@
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="11.77734375" customWidth="1"/>
+    <col min="1" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>834</v>
       </c>
@@ -11598,7 +11592,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -11626,7 +11620,7 @@
         <v>一</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -11652,7 +11646,7 @@
         <v>丨</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -11680,7 +11674,7 @@
         <v>丶</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -11706,7 +11700,7 @@
         <v>丿/乀/⺄</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -11732,7 +11726,7 @@
         <v>乙/乚/乛</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -11758,7 +11752,7 @@
         <v>亅</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -11784,7 +11778,7 @@
         <v>二</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -11812,7 +11806,7 @@
         <v>亠</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -11840,7 +11834,7 @@
         <v>人/亻</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -11868,7 +11862,7 @@
         <v>儿/兒</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -11896,7 +11890,7 @@
         <v>入</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -11922,7 +11916,7 @@
         <v>八/丷</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -11950,7 +11944,7 @@
         <v>冂</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -11978,7 +11972,7 @@
         <v>冖</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -12006,7 +12000,7 @@
         <v>冫</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -12034,7 +12028,7 @@
         <v>几</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -12062,7 +12056,7 @@
         <v>凵</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>刀/刂/⺈</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -12116,7 +12110,7 @@
         <v>力</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -12144,7 +12138,7 @@
         <v>勹</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -12170,7 +12164,7 @@
         <v>匕</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -12198,7 +12192,7 @@
         <v>匚</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -12224,7 +12218,7 @@
         <v>匸</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -12250,7 +12244,7 @@
         <v>十</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -12276,7 +12270,7 @@
         <v>卜</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -12304,7 +12298,7 @@
         <v>卩/㔾</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -12332,7 +12326,7 @@
         <v>厂/廠</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -12360,7 +12354,7 @@
         <v>厶</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -12386,7 +12380,7 @@
         <v>又</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -12412,7 +12406,7 @@
         <v>口</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -12440,7 +12434,7 @@
         <v>囗</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -12468,7 +12462,7 @@
         <v>土</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -12494,7 +12488,7 @@
         <v>士</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -12520,7 +12514,7 @@
         <v>夂</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -12546,7 +12540,7 @@
         <v>夊</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -12572,7 +12566,7 @@
         <v>夕</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -12598,7 +12592,7 @@
         <v>大</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -12624,7 +12618,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -12652,7 +12646,7 @@
         <v>子</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -12680,7 +12674,7 @@
         <v>宀</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -12706,7 +12700,7 @@
         <v>寸</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -12734,7 +12728,7 @@
         <v>小/⺌/⺍</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -12760,7 +12754,7 @@
         <v>尢/尣</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -12788,7 +12782,7 @@
         <v>尸/屍</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -12814,7 +12808,7 @@
         <v>屮</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -12840,7 +12834,7 @@
         <v>山</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -12866,7 +12860,7 @@
         <v>巛/川</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -12892,7 +12886,7 @@
         <v>工</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -12918,7 +12912,7 @@
         <v>己</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -12946,7 +12940,7 @@
         <v>巾</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -12974,7 +12968,7 @@
         <v>干/乾,幹</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>幺/么</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>广/廣</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -13058,7 +13052,7 @@
         <v>廴</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -13086,7 +13080,7 @@
         <v>廾</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -13112,7 +13106,7 @@
         <v>弋</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -13140,7 +13134,7 @@
         <v>弓</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -13166,7 +13160,7 @@
         <v>彐/彑</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -13194,7 +13188,7 @@
         <v>彡</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -13222,7 +13216,7 @@
         <v>彳</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -13250,7 +13244,7 @@
         <v>心/忄/⺗</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -13276,7 +13270,7 @@
         <v>戈</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -13304,7 +13298,7 @@
         <v>戶/户/戸/户</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -13332,7 +13326,7 @@
         <v>手/扌/龵</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -13358,7 +13352,7 @@
         <v>支</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -13384,7 +13378,7 @@
         <v>攴/攵</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -13410,7 +13404,7 @@
         <v>文</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -13436,7 +13430,7 @@
         <v>斗</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -13462,7 +13456,7 @@
         <v>斤</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -13488,7 +13482,7 @@
         <v>方</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -13514,7 +13508,7 @@
         <v>无/旡</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -13540,7 +13534,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -13566,7 +13560,7 @@
         <v>曰</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -13592,7 +13586,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -13620,7 +13614,7 @@
         <v>木</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -13648,7 +13642,7 @@
         <v>欠</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -13674,7 +13668,7 @@
         <v>止</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -13700,7 +13694,7 @@
         <v>歹/歺</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -13726,7 +13720,7 @@
         <v>殳</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -13752,7 +13746,7 @@
         <v>毋/母</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -13778,7 +13772,7 @@
         <v>比</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -13804,7 +13798,7 @@
         <v>毛</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -13830,7 +13824,7 @@
         <v>氏</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -13858,7 +13852,7 @@
         <v>气/氣</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -13886,7 +13880,7 @@
         <v>水/氵/氺</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -13914,7 +13908,7 @@
         <v>火/灬</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -13942,7 +13936,7 @@
         <v>爪/爫</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -13968,7 +13962,7 @@
         <v>父</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -13994,7 +13988,7 @@
         <v>爻</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -14022,7 +14016,7 @@
         <v>爿/丬</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -14048,7 +14042,7 @@
         <v>片</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -14074,7 +14068,7 @@
         <v>牙</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -14102,7 +14096,7 @@
         <v>牛/牜/⺧</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -14130,7 +14124,7 @@
         <v>犬/犭</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -14156,7 +14150,7 @@
         <v>玄</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -14182,7 +14176,7 @@
         <v>玉/王/玊</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -14208,7 +14202,7 @@
         <v>瓜</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -14234,7 +14228,7 @@
         <v>瓦</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -14260,7 +14254,7 @@
         <v>甘</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -14286,7 +14280,7 @@
         <v>生</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -14312,7 +14306,7 @@
         <v>用</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -14338,7 +14332,7 @@
         <v>田</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -14366,7 +14360,7 @@
         <v>疋/⺪</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -14394,7 +14388,7 @@
         <v>疒</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -14422,7 +14416,7 @@
         <v>癶</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -14448,7 +14442,7 @@
         <v>白</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -14474,7 +14468,7 @@
         <v>皮</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -14500,7 +14494,7 @@
         <v>皿</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -14528,7 +14522,7 @@
         <v>目/⺫</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -14554,7 +14548,7 @@
         <v>矛</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -14580,7 +14574,7 @@
         <v>矢</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -14606,7 +14600,7 @@
         <v>石</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -14634,7 +14628,7 @@
         <v>示/礻</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -14660,7 +14654,7 @@
         <v>禸</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -14688,7 +14682,7 @@
         <v>禾</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -14714,7 +14708,7 @@
         <v>穴</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -14740,7 +14734,7 @@
         <v>立</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -14768,7 +14762,7 @@
         <v>竹/⺮</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -14796,7 +14790,7 @@
         <v>米</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -14826,7 +14820,7 @@
         <v>糸/糹/纟</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -14852,7 +14846,7 @@
         <v>缶</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -14878,7 +14872,7 @@
         <v>网/⺲/罓/⺳</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -14904,7 +14898,7 @@
         <v>羊/⺶/⺷</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -14930,7 +14924,7 @@
         <v>羽</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -14958,7 +14952,7 @@
         <v>老/耂</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -14984,7 +14978,7 @@
         <v>而</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -15010,7 +15004,7 @@
         <v>耒</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -15036,7 +15030,7 @@
         <v>耳</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -15062,7 +15056,7 @@
         <v>聿/⺺/⺻</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -15090,7 +15084,7 @@
         <v>肉/⺼/月</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -15116,7 +15110,7 @@
         <v>臣</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -15142,7 +15136,7 @@
         <v>自</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -15168,7 +15162,7 @@
         <v>至</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -15194,7 +15188,7 @@
         <v>臼</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -15220,7 +15214,7 @@
         <v>舌</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -15246,7 +15240,7 @@
         <v>舛</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -15272,7 +15266,7 @@
         <v>舟</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -15298,7 +15292,7 @@
         <v>艮</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -15324,7 +15318,7 @@
         <v>色</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -15354,7 +15348,7 @@
         <v>艸/⺿/⺾</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -15380,7 +15374,7 @@
         <v>虍</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -15408,7 +15402,7 @@
         <v>虫/蟲</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -15434,7 +15428,7 @@
         <v>血</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -15460,7 +15454,7 @@
         <v>行</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -15488,7 +15482,7 @@
         <v>衣/⻂</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -15514,7 +15508,7 @@
         <v>襾/西/覀</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -15542,7 +15536,7 @@
         <v>見/见</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -15570,7 +15564,7 @@
         <v>角/⻇/⻆</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -15600,7 +15594,7 @@
         <v>言/訁/讠</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -15626,7 +15620,7 @@
         <v>谷</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -15652,7 +15646,7 @@
         <v>豆</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -15678,7 +15672,7 @@
         <v>豕</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -15704,7 +15698,7 @@
         <v>豸</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -15732,7 +15726,7 @@
         <v>貝/贝</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -15758,7 +15752,7 @@
         <v>赤</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -15784,7 +15778,7 @@
         <v>走</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -15812,7 +15806,7 @@
         <v>足/⻊</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -15838,7 +15832,7 @@
         <v>身</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -15868,7 +15862,7 @@
         <v>車/车</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -15894,7 +15888,7 @@
         <v>辛</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -15920,7 +15914,7 @@
         <v>辰</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -15948,7 +15942,7 @@
         <v>辵/⻌/⻍/⻎</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -15976,7 +15970,7 @@
         <v>邑/⻏</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -16002,7 +15996,7 @@
         <v>酉</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -16028,7 +16022,7 @@
         <v>釆</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -16054,7 +16048,7 @@
         <v>里</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -16084,7 +16078,7 @@
         <v>金/釒/钅</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -16112,7 +16106,7 @@
         <v>長/镸/长</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -16142,7 +16136,7 @@
         <v>門/门</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -16168,7 +16162,7 @@
         <v>阜/⻖</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -16194,7 +16188,7 @@
         <v>隶</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -16220,7 +16214,7 @@
         <v>隹</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -16246,7 +16240,7 @@
         <v>雨</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -16272,7 +16266,7 @@
         <v>靑/青</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -16298,7 +16292,7 @@
         <v>非</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -16324,7 +16318,7 @@
         <v>面/靣</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -16350,7 +16344,7 @@
         <v>革</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -16378,7 +16372,7 @@
         <v>韋/韦</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -16404,7 +16398,7 @@
         <v>韭</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -16430,7 +16424,7 @@
         <v>音</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -16458,7 +16452,7 @@
         <v>頁/页</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -16486,7 +16480,7 @@
         <v>風/风</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -16514,7 +16508,7 @@
         <v>飛/飞</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>184</v>
       </c>
@@ -16544,7 +16538,7 @@
         <v>食/飠/饣</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="11">
         <v>185</v>
       </c>
@@ -16570,7 +16564,7 @@
         <v>首</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>186</v>
       </c>
@@ -16596,7 +16590,7 @@
         <v>香</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>187</v>
       </c>
@@ -16624,7 +16618,7 @@
         <v>馬/马</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>188</v>
       </c>
@@ -16652,7 +16646,7 @@
         <v>骨/⻣</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>189</v>
       </c>
@@ -16678,7 +16672,7 @@
         <v>高/髙</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>190</v>
       </c>
@@ -16704,7 +16698,7 @@
         <v>髟</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>191</v>
       </c>
@@ -16730,7 +16724,7 @@
         <v>鬥</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>192</v>
       </c>
@@ -16756,7 +16750,7 @@
         <v>鬯</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>193</v>
       </c>
@@ -16782,7 +16776,7 @@
         <v>鬲</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>194</v>
       </c>
@@ -16808,7 +16802,7 @@
         <v>鬼</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>195</v>
       </c>
@@ -16836,7 +16830,7 @@
         <v>魚/鱼</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>196</v>
       </c>
@@ -16864,7 +16858,7 @@
         <v>鳥/鸟</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>197</v>
       </c>
@@ -16892,7 +16886,7 @@
         <v>鹵/卤</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>198</v>
       </c>
@@ -16918,7 +16912,7 @@
         <v>鹿</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>199</v>
       </c>
@@ -16946,7 +16940,7 @@
         <v>麥/麦</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>200</v>
       </c>
@@ -16972,7 +16966,7 @@
         <v>麻</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>201</v>
       </c>
@@ -17000,7 +16994,7 @@
         <v>黃/黄</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>202</v>
       </c>
@@ -17026,7 +17020,7 @@
         <v>黍</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>203</v>
       </c>
@@ -17052,7 +17046,7 @@
         <v>黑</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>204</v>
       </c>
@@ -17078,7 +17072,7 @@
         <v>黹</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>205</v>
       </c>
@@ -17106,7 +17100,7 @@
         <v>黽/黾</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>206</v>
       </c>
@@ -17132,7 +17126,7 @@
         <v>鼎</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>207</v>
       </c>
@@ -17158,7 +17152,7 @@
         <v>鼓</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>208</v>
       </c>
@@ -17184,7 +17178,7 @@
         <v>鼠</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>209</v>
       </c>
@@ -17210,7 +17204,7 @@
         <v>鼻</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>210</v>
       </c>
@@ -17238,7 +17232,7 @@
         <v>齊/斉/齐</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
         <v>211</v>
       </c>
@@ -17266,7 +17260,7 @@
         <v>齒/齿</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>212</v>
       </c>
@@ -17294,7 +17288,7 @@
         <v>龍/龙</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
         <v>213</v>
       </c>
@@ -17322,7 +17316,7 @@
         <v>龜/龟</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>214</v>
       </c>
@@ -17365,16 +17359,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD8E81-2FBF-48F6-AE66-0A986304A90F}">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -17388,27 +17382,27 @@
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>1114</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1115</v>
       </c>
       <c r="C2" s="12">
@@ -17417,7 +17411,7 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -17430,15 +17424,15 @@
         <v>42</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1118</v>
       </c>
       <c r="C3" s="12">
@@ -17458,15 +17452,15 @@
         <v>21</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1120</v>
       </c>
       <c r="C4" s="12">
@@ -17475,7 +17469,7 @@
       <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>1121</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -17488,15 +17482,15 @@
         <v>10</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>1123</v>
       </c>
       <c r="C5" s="12">
@@ -17516,15 +17510,15 @@
         <v>33</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>1125</v>
       </c>
       <c r="C6" s="12">
@@ -17544,15 +17538,15 @@
         <v>42</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>1127</v>
       </c>
       <c r="C7" s="12">
@@ -17572,15 +17566,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>1129</v>
       </c>
       <c r="C8" s="12">
@@ -17600,15 +17594,15 @@
         <v>29</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>1131</v>
       </c>
       <c r="C9" s="12">
@@ -17617,7 +17611,7 @@
       <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>1132</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -17630,15 +17624,15 @@
         <v>38</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>1134</v>
       </c>
       <c r="C10" s="12">
@@ -17647,7 +17641,7 @@
       <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>1135</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -17660,15 +17654,15 @@
         <v>794</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>1138</v>
       </c>
       <c r="C11" s="12">
@@ -17690,15 +17684,15 @@
       <c r="I11" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>1142</v>
       </c>
       <c r="C12" s="12">
@@ -17707,7 +17701,7 @@
       <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>1143</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -17720,15 +17714,15 @@
         <v>28</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>1145</v>
       </c>
       <c r="C13" s="12">
@@ -17748,15 +17742,15 @@
         <v>44</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>1147</v>
       </c>
       <c r="C14" s="12">
@@ -17765,7 +17759,7 @@
       <c r="D14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>1148</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -17778,15 +17772,15 @@
         <v>50</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>1151</v>
       </c>
       <c r="C15" s="12">
@@ -17795,7 +17789,7 @@
       <c r="D15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>1152</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -17808,15 +17802,15 @@
         <v>30</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>1154</v>
       </c>
       <c r="C16" s="12">
@@ -17825,7 +17819,7 @@
       <c r="D16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>1155</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -17838,15 +17832,15 @@
         <v>115</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>1157</v>
       </c>
       <c r="C17" s="12">
@@ -17855,7 +17849,7 @@
       <c r="D17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>1158</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -17868,15 +17862,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>1160</v>
       </c>
       <c r="C18" s="12">
@@ -17885,7 +17879,7 @@
       <c r="D18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>1161</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -17898,15 +17892,15 @@
         <v>23</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>1163</v>
       </c>
       <c r="C19" s="12">
@@ -17915,7 +17909,7 @@
       <c r="D19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>1164</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -17928,15 +17922,15 @@
         <v>377</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    <row r="20" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>1166</v>
       </c>
       <c r="C20" s="12">
@@ -17956,15 +17950,15 @@
         <v>163</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    <row r="21" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>1168</v>
       </c>
       <c r="C21" s="12">
@@ -17973,7 +17967,7 @@
       <c r="D21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>1169</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -17986,15 +17980,15 @@
         <v>64</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    <row r="22" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>1171</v>
       </c>
       <c r="C22" s="12">
@@ -18014,15 +18008,15 @@
         <v>19</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>1173</v>
       </c>
       <c r="C23" s="12">
@@ -18031,7 +18025,7 @@
       <c r="D23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -18044,15 +18038,15 @@
         <v>64</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>1176</v>
       </c>
       <c r="C24" s="12">
@@ -18063,7 +18057,7 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>1177</v>
+        <v>1643</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>101</v>
@@ -18072,16 +18066,16 @@
         <v>17</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>1178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1179</v>
       </c>
       <c r="C25" s="12">
         <v>2</v>
@@ -18100,16 +18094,16 @@
         <v>55</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>1180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1181</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
@@ -18128,25 +18122,25 @@
         <v>45</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1183</v>
       </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>1184</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>1185</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>111</v>
@@ -18158,16 +18152,16 @@
         <v>40</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>1186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1187</v>
       </c>
       <c r="C28" s="12">
         <v>2</v>
@@ -18176,8 +18170,8 @@
         <v>114</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="16" t="s">
-        <v>1188</v>
+      <c r="F28" s="17" t="s">
+        <v>835</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>115</v>
@@ -18186,18 +18180,18 @@
         <v>129</v>
       </c>
       <c r="I28" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>1189</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1191</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
@@ -18205,29 +18199,29 @@
       <c r="D29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>1192</v>
+      <c r="E29" s="13" t="s">
+        <v>1190</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>120</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H29" s="12">
         <v>40</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="14" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="J29" s="13" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>1195</v>
+      <c r="B30" s="13" t="s">
+        <v>1193</v>
       </c>
       <c r="C30" s="12">
         <v>2</v>
@@ -18246,16 +18240,16 @@
         <v>91</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="14" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="J30" s="13" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>1197</v>
+      <c r="B31" s="13" t="s">
+        <v>1195</v>
       </c>
       <c r="C31" s="12">
         <v>3</v>
@@ -18270,20 +18264,20 @@
       <c r="G31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>1146</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="14" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="J31" s="13" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>1199</v>
+      <c r="B32" s="13" t="s">
+        <v>1197</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -18291,8 +18285,8 @@
       <c r="D32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>1200</v>
+      <c r="E32" s="13" t="s">
+        <v>1198</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>132</v>
@@ -18304,16 +18298,16 @@
         <v>118</v>
       </c>
       <c r="I32" s="12"/>
-      <c r="J32" s="14" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="J32" s="13" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>1202</v>
+      <c r="B33" s="13" t="s">
+        <v>1200</v>
       </c>
       <c r="C33" s="12">
         <v>3</v>
@@ -18321,8 +18315,8 @@
       <c r="D33" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>1203</v>
+      <c r="E33" s="13" t="s">
+        <v>1201</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>137</v>
@@ -18334,16 +18328,16 @@
         <v>580</v>
       </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="14" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="J33" s="13" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>1205</v>
+      <c r="B34" s="13" t="s">
+        <v>1203</v>
       </c>
       <c r="C34" s="12">
         <v>3</v>
@@ -18362,16 +18356,16 @@
         <v>24</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="14" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="J34" s="13" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>1207</v>
+      <c r="B35" s="13" t="s">
+        <v>1205</v>
       </c>
       <c r="C35" s="12">
         <v>3</v>
@@ -18384,22 +18378,22 @@
         <v>145</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H35" s="12">
         <v>11</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="14" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="J35" s="13" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>1210</v>
+      <c r="B36" s="13" t="s">
+        <v>1208</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -18418,16 +18412,16 @@
         <v>23</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="14" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="J36" s="13" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>1212</v>
+      <c r="B37" s="13" t="s">
+        <v>1210</v>
       </c>
       <c r="C37" s="12">
         <v>3</v>
@@ -18446,16 +18440,16 @@
         <v>34</v>
       </c>
       <c r="I37" s="12"/>
-      <c r="J37" s="14" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="J37" s="13" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>1214</v>
+      <c r="B38" s="13" t="s">
+        <v>1212</v>
       </c>
       <c r="C38" s="12">
         <v>3</v>
@@ -18474,16 +18468,16 @@
         <v>132</v>
       </c>
       <c r="I38" s="12"/>
-      <c r="J38" s="14" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="J38" s="13" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>1216</v>
+      <c r="B39" s="13" t="s">
+        <v>1214</v>
       </c>
       <c r="C39" s="12">
         <v>3</v>
@@ -18502,16 +18496,16 @@
         <v>681</v>
       </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="14" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="J39" s="13" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>1218</v>
+      <c r="B40" s="13" t="s">
+        <v>1216</v>
       </c>
       <c r="C40" s="12">
         <v>3</v>
@@ -18519,8 +18513,8 @@
       <c r="D40" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>1219</v>
+      <c r="E40" s="13" t="s">
+        <v>1217</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>165</v>
@@ -18532,16 +18526,16 @@
         <v>83</v>
       </c>
       <c r="I40" s="12"/>
-      <c r="J40" s="14" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="J40" s="13" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>1221</v>
+      <c r="B41" s="13" t="s">
+        <v>1219</v>
       </c>
       <c r="C41" s="12">
         <v>3</v>
@@ -18549,8 +18543,8 @@
       <c r="D41" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>1222</v>
+      <c r="E41" s="13" t="s">
+        <v>1220</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>170</v>
@@ -18562,16 +18556,16 @@
         <v>246</v>
       </c>
       <c r="I41" s="12"/>
-      <c r="J41" s="14" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="J41" s="13" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>1224</v>
+      <c r="B42" s="13" t="s">
+        <v>1222</v>
       </c>
       <c r="C42" s="12">
         <v>3</v>
@@ -18590,16 +18584,16 @@
         <v>40</v>
       </c>
       <c r="I42" s="12"/>
-      <c r="J42" s="14" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="J42" s="13" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>1226</v>
+      <c r="B43" s="13" t="s">
+        <v>1224</v>
       </c>
       <c r="C43" s="12">
         <v>3</v>
@@ -18607,8 +18601,8 @@
       <c r="D43" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>1227</v>
+      <c r="E43" s="13" t="s">
+        <v>1225</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>178</v>
@@ -18620,16 +18614,16 @@
         <v>41</v>
       </c>
       <c r="I43" s="12"/>
-      <c r="J43" s="14" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="J43" s="13" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>1229</v>
+      <c r="B44" s="13" t="s">
+        <v>1227</v>
       </c>
       <c r="C44" s="12">
         <v>3</v>
@@ -18648,16 +18642,16 @@
         <v>66</v>
       </c>
       <c r="I44" s="12"/>
-      <c r="J44" s="14" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="J44" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>1231</v>
+      <c r="B45" s="13" t="s">
+        <v>1229</v>
       </c>
       <c r="C45" s="12">
         <v>3</v>
@@ -18676,18 +18670,18 @@
         <v>148</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>1232</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>1234</v>
       </c>
       <c r="C46" s="12">
         <v>3</v>
@@ -18706,16 +18700,16 @@
         <v>38</v>
       </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="14" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="J46" s="13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>1236</v>
+      <c r="B47" s="13" t="s">
+        <v>1234</v>
       </c>
       <c r="C47" s="12">
         <v>3</v>
@@ -18734,16 +18728,16 @@
         <v>636</v>
       </c>
       <c r="I47" s="12"/>
-      <c r="J47" s="14" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="J47" s="13" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>1238</v>
+      <c r="B48" s="13" t="s">
+        <v>1236</v>
       </c>
       <c r="C48" s="12">
         <v>3</v>
@@ -18762,16 +18756,16 @@
         <v>26</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="14" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="J48" s="13" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>1240</v>
+      <c r="B49" s="13" t="s">
+        <v>1238</v>
       </c>
       <c r="C49" s="12">
         <v>3</v>
@@ -18790,16 +18784,16 @@
         <v>17</v>
       </c>
       <c r="I49" s="12"/>
-      <c r="J49" s="14" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="J49" s="13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>1242</v>
+      <c r="B50" s="13" t="s">
+        <v>1240</v>
       </c>
       <c r="C50" s="12">
         <v>3</v>
@@ -18818,16 +18812,16 @@
         <v>20</v>
       </c>
       <c r="I50" s="12"/>
-      <c r="J50" s="14" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="J50" s="13" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>1244</v>
+      <c r="B51" s="13" t="s">
+        <v>1242</v>
       </c>
       <c r="C51" s="12">
         <v>3</v>
@@ -18835,8 +18829,8 @@
       <c r="D51" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>1245</v>
+      <c r="E51" s="13" t="s">
+        <v>1243</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>209</v>
@@ -18848,16 +18842,16 @@
         <v>295</v>
       </c>
       <c r="I51" s="12"/>
-      <c r="J51" s="14" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="J51" s="13" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>1247</v>
+      <c r="B52" s="13" t="s">
+        <v>1245</v>
       </c>
       <c r="C52" s="12">
         <v>3</v>
@@ -18876,18 +18870,18 @@
         <v>9</v>
       </c>
       <c r="I52" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>1248</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>52</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1250</v>
       </c>
       <c r="C53" s="12">
         <v>3</v>
@@ -18906,16 +18900,16 @@
         <v>50</v>
       </c>
       <c r="I53" s="12"/>
-      <c r="J53" s="14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="J53" s="13" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>1252</v>
+      <c r="B54" s="13" t="s">
+        <v>1250</v>
       </c>
       <c r="C54" s="12">
         <v>3</v>
@@ -18923,8 +18917,8 @@
       <c r="D54" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>1253</v>
+      <c r="E54" s="13" t="s">
+        <v>1251</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>221</v>
@@ -18936,18 +18930,18 @@
         <v>15</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>1254</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>1256</v>
       </c>
       <c r="C55" s="12">
         <v>3</v>
@@ -18955,8 +18949,8 @@
       <c r="D55" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>1257</v>
+      <c r="E55" s="13" t="s">
+        <v>1255</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>227</v>
@@ -18968,16 +18962,16 @@
         <v>9</v>
       </c>
       <c r="I55" s="12"/>
-      <c r="J55" s="14" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="J55" s="13" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>1259</v>
+      <c r="B56" s="13" t="s">
+        <v>1257</v>
       </c>
       <c r="C56" s="12">
         <v>3</v>
@@ -18985,8 +18979,8 @@
       <c r="D56" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>1260</v>
+      <c r="E56" s="13" t="s">
+        <v>1258</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>232</v>
@@ -18998,16 +18992,16 @@
         <v>50</v>
       </c>
       <c r="I56" s="12"/>
-      <c r="J56" s="14" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="J56" s="13" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>1262</v>
+      <c r="B57" s="13" t="s">
+        <v>1260</v>
       </c>
       <c r="C57" s="12">
         <v>3</v>
@@ -19026,16 +19020,16 @@
         <v>15</v>
       </c>
       <c r="I57" s="12"/>
-      <c r="J57" s="14" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="J57" s="13" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>1264</v>
+      <c r="B58" s="13" t="s">
+        <v>1262</v>
       </c>
       <c r="C58" s="12">
         <v>3</v>
@@ -19043,8 +19037,8 @@
       <c r="D58" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>1265</v>
+      <c r="E58" s="13" t="s">
+        <v>1263</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>201</v>
@@ -19056,16 +19050,16 @@
         <v>165</v>
       </c>
       <c r="I58" s="12"/>
-      <c r="J58" s="14" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="J58" s="13" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>1267</v>
+      <c r="B59" s="13" t="s">
+        <v>1265</v>
       </c>
       <c r="C59" s="12">
         <v>3</v>
@@ -19084,16 +19078,16 @@
         <v>25</v>
       </c>
       <c r="I59" s="12"/>
-      <c r="J59" s="14" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="J59" s="13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>1269</v>
+      <c r="B60" s="13" t="s">
+        <v>1267</v>
       </c>
       <c r="C60" s="12">
         <v>3</v>
@@ -19101,8 +19095,8 @@
       <c r="D60" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>1270</v>
+      <c r="E60" s="13" t="s">
+        <v>1268</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>194</v>
@@ -19114,16 +19108,16 @@
         <v>62</v>
       </c>
       <c r="I60" s="12"/>
-      <c r="J60" s="14" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="J60" s="13" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>1272</v>
+      <c r="B61" s="13" t="s">
+        <v>1270</v>
       </c>
       <c r="C61" s="12">
         <v>3</v>
@@ -19131,8 +19125,8 @@
       <c r="D61" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>1273</v>
+      <c r="E61" s="13" t="s">
+        <v>1271</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>252</v>
@@ -19144,16 +19138,16 @@
         <v>215</v>
       </c>
       <c r="I61" s="12"/>
-      <c r="J61" s="14" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="J61" s="13" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>1275</v>
+      <c r="B62" s="13" t="s">
+        <v>1273</v>
       </c>
       <c r="C62" s="12">
         <v>4</v>
@@ -19161,8 +19155,8 @@
       <c r="D62" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>1276</v>
+      <c r="E62" s="13" t="s">
+        <v>1274</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>256</v>
@@ -19170,20 +19164,20 @@
       <c r="G62" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="15">
         <v>1115</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="14" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+      <c r="J62" s="13" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>1278</v>
+      <c r="B63" s="13" t="s">
+        <v>1276</v>
       </c>
       <c r="C63" s="12">
         <v>4</v>
@@ -19202,16 +19196,16 @@
         <v>116</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="14" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="J63" s="13" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>1280</v>
+      <c r="B64" s="13" t="s">
+        <v>1278</v>
       </c>
       <c r="C64" s="12">
         <v>4</v>
@@ -19229,19 +19223,19 @@
       <c r="H64" s="12">
         <v>44</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>1281</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>1283</v>
       </c>
       <c r="C65" s="12">
         <v>4</v>
@@ -19249,8 +19243,8 @@
       <c r="D65" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>1284</v>
+      <c r="E65" s="13" t="s">
+        <v>1282</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>267</v>
@@ -19258,20 +19252,20 @@
       <c r="G65" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="15">
         <v>1203</v>
       </c>
       <c r="I65" s="12"/>
-      <c r="J65" s="14" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="J65" s="13" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>1286</v>
+      <c r="B66" s="13" t="s">
+        <v>1284</v>
       </c>
       <c r="C66" s="12">
         <v>4</v>
@@ -19290,16 +19284,16 @@
         <v>26</v>
       </c>
       <c r="I66" s="12"/>
-      <c r="J66" s="14" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
+      <c r="J66" s="13" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>1288</v>
+      <c r="B67" s="13" t="s">
+        <v>1286</v>
       </c>
       <c r="C67" s="12">
         <v>4</v>
@@ -19318,16 +19312,16 @@
         <v>296</v>
       </c>
       <c r="I67" s="12"/>
-      <c r="J67" s="14" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+      <c r="J67" s="13" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>1290</v>
+      <c r="B68" s="13" t="s">
+        <v>1288</v>
       </c>
       <c r="C68" s="12">
         <v>4</v>
@@ -19346,16 +19340,16 @@
         <v>26</v>
       </c>
       <c r="I68" s="12"/>
-      <c r="J68" s="14" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="J68" s="13" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>1292</v>
+      <c r="B69" s="13" t="s">
+        <v>1290</v>
       </c>
       <c r="C69" s="12">
         <v>4</v>
@@ -19374,16 +19368,16 @@
         <v>32</v>
       </c>
       <c r="I69" s="12"/>
-      <c r="J69" s="14" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+      <c r="J69" s="13" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>1294</v>
+      <c r="B70" s="13" t="s">
+        <v>1292</v>
       </c>
       <c r="C70" s="12">
         <v>4</v>
@@ -19402,16 +19396,16 @@
         <v>55</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="14" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
+      <c r="J70" s="13" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>1296</v>
+      <c r="B71" s="13" t="s">
+        <v>1294</v>
       </c>
       <c r="C71" s="12">
         <v>4</v>
@@ -19430,16 +19424,16 @@
         <v>92</v>
       </c>
       <c r="I71" s="12"/>
-      <c r="J71" s="14" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="J71" s="13" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>1298</v>
+      <c r="B72" s="13" t="s">
+        <v>1296</v>
       </c>
       <c r="C72" s="12">
         <v>4</v>
@@ -19458,16 +19452,16 @@
         <v>12</v>
       </c>
       <c r="I72" s="12"/>
-      <c r="J72" s="14" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+      <c r="J72" s="13" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>1300</v>
+      <c r="B73" s="13" t="s">
+        <v>1298</v>
       </c>
       <c r="C73" s="12">
         <v>4</v>
@@ -19486,16 +19480,16 @@
         <v>453</v>
       </c>
       <c r="I73" s="12"/>
-      <c r="J73" s="14" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="J73" s="13" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>1302</v>
+      <c r="B74" s="13" t="s">
+        <v>1300</v>
       </c>
       <c r="C74" s="12">
         <v>4</v>
@@ -19514,16 +19508,16 @@
         <v>37</v>
       </c>
       <c r="I74" s="12"/>
-      <c r="J74" s="14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
+      <c r="J74" s="13" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>1304</v>
+      <c r="B75" s="13" t="s">
+        <v>1302</v>
       </c>
       <c r="C75" s="12">
         <v>4</v>
@@ -19542,16 +19536,16 @@
         <v>69</v>
       </c>
       <c r="I75" s="12"/>
-      <c r="J75" s="14" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="J75" s="13" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>1306</v>
+      <c r="B76" s="13" t="s">
+        <v>1304</v>
       </c>
       <c r="C76" s="12">
         <v>4</v>
@@ -19559,8 +19553,8 @@
       <c r="D76" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>1307</v>
+      <c r="E76" s="13" t="s">
+        <v>1305</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>306</v>
@@ -19568,20 +19562,20 @@
       <c r="G76" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="15">
         <v>1369</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="14" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
+      <c r="J76" s="13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>1309</v>
+      <c r="B77" s="13" t="s">
+        <v>1307</v>
       </c>
       <c r="C77" s="12">
         <v>4</v>
@@ -19589,8 +19583,8 @@
       <c r="D77" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>1310</v>
+      <c r="E77" s="13" t="s">
+        <v>1308</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>311</v>
@@ -19602,16 +19596,16 @@
         <v>235</v>
       </c>
       <c r="I77" s="12"/>
-      <c r="J77" s="14" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="J77" s="13" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>1312</v>
+      <c r="B78" s="13" t="s">
+        <v>1310</v>
       </c>
       <c r="C78" s="12">
         <v>4</v>
@@ -19630,16 +19624,16 @@
         <v>99</v>
       </c>
       <c r="I78" s="12"/>
-      <c r="J78" s="14" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
+      <c r="J78" s="13" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>1314</v>
+      <c r="B79" s="13" t="s">
+        <v>1312</v>
       </c>
       <c r="C79" s="12">
         <v>4</v>
@@ -19652,22 +19646,22 @@
         <v>317</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H79" s="12">
         <v>231</v>
       </c>
       <c r="I79" s="12"/>
-      <c r="J79" s="14" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="J79" s="13" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>1317</v>
+      <c r="B80" s="13" t="s">
+        <v>1315</v>
       </c>
       <c r="C80" s="12">
         <v>4</v>
@@ -19686,16 +19680,16 @@
         <v>93</v>
       </c>
       <c r="I80" s="12"/>
-      <c r="J80" s="14" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
+      <c r="J80" s="13" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>1319</v>
+      <c r="B81" s="13" t="s">
+        <v>1317</v>
       </c>
       <c r="C81" s="12">
         <v>4</v>
@@ -19714,16 +19708,16 @@
         <v>16</v>
       </c>
       <c r="I81" s="12"/>
-      <c r="J81" s="14" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
+      <c r="J81" s="13" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>1321</v>
+      <c r="B82" s="13" t="s">
+        <v>1319</v>
       </c>
       <c r="C82" s="12">
         <v>4</v>
@@ -19742,16 +19736,16 @@
         <v>21</v>
       </c>
       <c r="I82" s="12"/>
-      <c r="J82" s="14" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
+      <c r="J82" s="13" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>1323</v>
+      <c r="B83" s="13" t="s">
+        <v>1321</v>
       </c>
       <c r="C83" s="12">
         <v>4</v>
@@ -19770,16 +19764,16 @@
         <v>211</v>
       </c>
       <c r="I83" s="12"/>
-      <c r="J83" s="14" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
+      <c r="J83" s="13" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>1325</v>
+      <c r="B84" s="13" t="s">
+        <v>1323</v>
       </c>
       <c r="C84" s="12">
         <v>4</v>
@@ -19798,16 +19792,16 @@
         <v>10</v>
       </c>
       <c r="I84" s="12"/>
-      <c r="J84" s="14" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
+      <c r="J84" s="13" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>1327</v>
+      <c r="B85" s="13" t="s">
+        <v>1325</v>
       </c>
       <c r="C85" s="12">
         <v>4</v>
@@ -19826,18 +19820,18 @@
         <v>17</v>
       </c>
       <c r="I85" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>1330</v>
       </c>
       <c r="C86" s="12">
         <v>4</v>
@@ -19845,8 +19839,8 @@
       <c r="D86" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>1331</v>
+      <c r="E86" s="13" t="s">
+        <v>1329</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>340</v>
@@ -19854,20 +19848,20 @@
       <c r="G86" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="15">
         <v>1595</v>
       </c>
       <c r="I86" s="12"/>
-      <c r="J86" s="14" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="13">
+      <c r="J86" s="13" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>1333</v>
+      <c r="B87" s="13" t="s">
+        <v>1331</v>
       </c>
       <c r="C87" s="12">
         <v>4</v>
@@ -19875,8 +19869,8 @@
       <c r="D87" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>1644</v>
+      <c r="E87" s="13" t="s">
+        <v>1642</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>343</v>
@@ -19888,16 +19882,16 @@
         <v>639</v>
       </c>
       <c r="I87" s="12"/>
-      <c r="J87" s="14" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="J87" s="13" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>1335</v>
+      <c r="B88" s="13" t="s">
+        <v>1333</v>
       </c>
       <c r="C88" s="12">
         <v>4</v>
@@ -19905,8 +19899,8 @@
       <c r="D88" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>1336</v>
+      <c r="E88" s="13" t="s">
+        <v>1334</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>347</v>
@@ -19918,16 +19912,16 @@
         <v>36</v>
       </c>
       <c r="I88" s="12"/>
-      <c r="J88" s="14" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="13">
+      <c r="J88" s="13" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>1338</v>
+      <c r="B89" s="13" t="s">
+        <v>1336</v>
       </c>
       <c r="C89" s="12">
         <v>4</v>
@@ -19946,16 +19940,16 @@
         <v>10</v>
       </c>
       <c r="I89" s="12"/>
-      <c r="J89" s="14" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
+      <c r="J89" s="13" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>1340</v>
+      <c r="B90" s="13" t="s">
+        <v>1338</v>
       </c>
       <c r="C90" s="12">
         <v>4</v>
@@ -19974,16 +19968,16 @@
         <v>16</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="14" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="13">
+      <c r="J90" s="13" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>1342</v>
+      <c r="B91" s="13" t="s">
+        <v>1340</v>
       </c>
       <c r="C91" s="12">
         <v>4</v>
@@ -19991,8 +19985,8 @@
       <c r="D91" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>1343</v>
+      <c r="E91" s="13" t="s">
+        <v>1341</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>359</v>
@@ -20004,16 +19998,16 @@
         <v>48</v>
       </c>
       <c r="I91" s="12"/>
-      <c r="J91" s="14" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
+      <c r="J91" s="13" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>1345</v>
+      <c r="B92" s="13" t="s">
+        <v>1343</v>
       </c>
       <c r="C92" s="12">
         <v>4</v>
@@ -20032,16 +20026,16 @@
         <v>77</v>
       </c>
       <c r="I92" s="12"/>
-      <c r="J92" s="14" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="13">
+      <c r="J92" s="13" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>1347</v>
+      <c r="B93" s="13" t="s">
+        <v>1345</v>
       </c>
       <c r="C93" s="12">
         <v>4</v>
@@ -20060,16 +20054,16 @@
         <v>9</v>
       </c>
       <c r="I93" s="12"/>
-      <c r="J93" s="14" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
+      <c r="J93" s="13" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>1349</v>
+      <c r="B94" s="13" t="s">
+        <v>1347</v>
       </c>
       <c r="C94" s="12">
         <v>4</v>
@@ -20077,8 +20071,8 @@
       <c r="D94" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>1350</v>
+      <c r="E94" s="13" t="s">
+        <v>1348</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>371</v>
@@ -20090,16 +20084,16 @@
         <v>233</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="J94" s="14" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="13">
+      <c r="J94" s="13" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>1352</v>
+      <c r="B95" s="13" t="s">
+        <v>1350</v>
       </c>
       <c r="C95" s="12">
         <v>4</v>
@@ -20107,8 +20101,8 @@
       <c r="D95" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>1353</v>
+      <c r="E95" s="13" t="s">
+        <v>1351</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>375</v>
@@ -20120,16 +20114,16 @@
         <v>444</v>
       </c>
       <c r="I95" s="12"/>
-      <c r="J95" s="14" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
+      <c r="J95" s="13" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>1355</v>
+      <c r="B96" s="13" t="s">
+        <v>1353</v>
       </c>
       <c r="C96" s="12">
         <v>5</v>
@@ -20148,16 +20142,16 @@
         <v>6</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="J96" s="14" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="13">
+      <c r="J96" s="13" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>1357</v>
+      <c r="B97" s="13" t="s">
+        <v>1355</v>
       </c>
       <c r="C97" s="12">
         <v>5</v>
@@ -20176,16 +20170,16 @@
         <v>473</v>
       </c>
       <c r="I97" s="12"/>
-      <c r="J97" s="14" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="J97" s="13" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>1359</v>
+      <c r="B98" s="13" t="s">
+        <v>1357</v>
       </c>
       <c r="C98" s="12">
         <v>5</v>
@@ -20204,16 +20198,16 @@
         <v>55</v>
       </c>
       <c r="I98" s="12"/>
-      <c r="J98" s="14" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="13">
+      <c r="J98" s="13" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>1361</v>
+      <c r="B99" s="13" t="s">
+        <v>1359</v>
       </c>
       <c r="C99" s="12">
         <v>5</v>
@@ -20232,16 +20226,16 @@
         <v>174</v>
       </c>
       <c r="I99" s="12"/>
-      <c r="J99" s="14" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
+      <c r="J99" s="13" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>1363</v>
+      <c r="B100" s="13" t="s">
+        <v>1361</v>
       </c>
       <c r="C100" s="12">
         <v>5</v>
@@ -20260,16 +20254,16 @@
         <v>22</v>
       </c>
       <c r="I100" s="12"/>
-      <c r="J100" s="14" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="13">
+      <c r="J100" s="13" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>1365</v>
+      <c r="B101" s="13" t="s">
+        <v>1363</v>
       </c>
       <c r="C101" s="12">
         <v>5</v>
@@ -20288,16 +20282,16 @@
         <v>22</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="J101" s="14" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
+      <c r="J101" s="13" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>1367</v>
+      <c r="B102" s="13" t="s">
+        <v>1365</v>
       </c>
       <c r="C102" s="12">
         <v>5</v>
@@ -20316,16 +20310,16 @@
         <v>10</v>
       </c>
       <c r="I102" s="12"/>
-      <c r="J102" s="14" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="13">
+      <c r="J102" s="13" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>1369</v>
+      <c r="B103" s="13" t="s">
+        <v>1367</v>
       </c>
       <c r="C103" s="12">
         <v>5</v>
@@ -20344,16 +20338,16 @@
         <v>192</v>
       </c>
       <c r="I103" s="12"/>
-      <c r="J103" s="14" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
+      <c r="J103" s="13" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>1371</v>
+      <c r="B104" s="13" t="s">
+        <v>1369</v>
       </c>
       <c r="C104" s="12">
         <v>5</v>
@@ -20361,8 +20355,8 @@
       <c r="D104" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E104" s="14" t="s">
-        <v>1372</v>
+      <c r="E104" s="13" t="s">
+        <v>1370</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>408</v>
@@ -20374,16 +20368,16 @@
         <v>15</v>
       </c>
       <c r="I104" s="12"/>
-      <c r="J104" s="14" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="13">
+      <c r="J104" s="13" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>1374</v>
+      <c r="B105" s="13" t="s">
+        <v>1372</v>
       </c>
       <c r="C105" s="12">
         <v>5</v>
@@ -20391,8 +20385,8 @@
       <c r="D105" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E105" s="14" t="s">
-        <v>1375</v>
+      <c r="E105" s="13" t="s">
+        <v>1373</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>413</v>
@@ -20404,16 +20398,16 @@
         <v>526</v>
       </c>
       <c r="I105" s="12"/>
-      <c r="J105" s="14" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
+      <c r="J105" s="13" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>1377</v>
+      <c r="B106" s="13" t="s">
+        <v>1375</v>
       </c>
       <c r="C106" s="12">
         <v>5</v>
@@ -20421,8 +20415,8 @@
       <c r="D106" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E106" s="14" t="s">
-        <v>1378</v>
+      <c r="E106" s="13" t="s">
+        <v>1376</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>418</v>
@@ -20434,16 +20428,16 @@
         <v>15</v>
       </c>
       <c r="I106" s="12"/>
-      <c r="J106" s="14" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="13">
+      <c r="J106" s="13" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>1380</v>
+      <c r="B107" s="13" t="s">
+        <v>1378</v>
       </c>
       <c r="C107" s="12">
         <v>5</v>
@@ -20462,16 +20456,16 @@
         <v>109</v>
       </c>
       <c r="I107" s="12"/>
-      <c r="J107" s="14" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
+      <c r="J107" s="13" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>1382</v>
+      <c r="B108" s="13" t="s">
+        <v>1380</v>
       </c>
       <c r="C108" s="12">
         <v>5</v>
@@ -20490,16 +20484,16 @@
         <v>94</v>
       </c>
       <c r="I108" s="12"/>
-      <c r="J108" s="14" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="13">
+      <c r="J108" s="13" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>1384</v>
+      <c r="B109" s="13" t="s">
+        <v>1382</v>
       </c>
       <c r="C109" s="12">
         <v>5</v>
@@ -20518,16 +20512,16 @@
         <v>129</v>
       </c>
       <c r="I109" s="12"/>
-      <c r="J109" s="14" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="J109" s="13" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>1386</v>
+      <c r="B110" s="13" t="s">
+        <v>1384</v>
       </c>
       <c r="C110" s="12">
         <v>5</v>
@@ -20535,8 +20529,8 @@
       <c r="D110" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>1387</v>
+      <c r="E110" s="13" t="s">
+        <v>1385</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>306</v>
@@ -20548,16 +20542,16 @@
         <v>647</v>
       </c>
       <c r="I110" s="12"/>
-      <c r="J110" s="14" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="13">
+      <c r="J110" s="13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>1389</v>
+      <c r="B111" s="13" t="s">
+        <v>1387</v>
       </c>
       <c r="C111" s="12">
         <v>5</v>
@@ -20576,16 +20570,16 @@
         <v>65</v>
       </c>
       <c r="I111" s="12"/>
-      <c r="J111" s="14" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
+      <c r="J111" s="13" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A112" s="11">
         <v>111</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>1391</v>
+      <c r="B112" s="13" t="s">
+        <v>1389</v>
       </c>
       <c r="C112" s="12">
         <v>5</v>
@@ -20604,16 +20598,16 @@
         <v>64</v>
       </c>
       <c r="I112" s="12"/>
-      <c r="J112" s="14" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
+      <c r="J112" s="13" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>1393</v>
+      <c r="B113" s="13" t="s">
+        <v>1391</v>
       </c>
       <c r="C113" s="12">
         <v>5</v>
@@ -20632,16 +20626,16 @@
         <v>499</v>
       </c>
       <c r="I113" s="12"/>
-      <c r="J113" s="14" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
+      <c r="J113" s="13" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>1395</v>
+      <c r="B114" s="13" t="s">
+        <v>1393</v>
       </c>
       <c r="C114" s="12">
         <v>5</v>
@@ -20649,29 +20643,29 @@
       <c r="D114" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E114" s="14" t="s">
-        <v>1396</v>
+      <c r="E114" s="13" t="s">
+        <v>1394</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H114" s="12">
         <v>213</v>
       </c>
       <c r="I114" s="12"/>
-      <c r="J114" s="14" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="13">
+      <c r="J114" s="13" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>1399</v>
+      <c r="B115" s="13" t="s">
+        <v>1397</v>
       </c>
       <c r="C115" s="12">
         <v>5</v>
@@ -20690,16 +20684,16 @@
         <v>12</v>
       </c>
       <c r="I115" s="12"/>
-      <c r="J115" s="14" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
+      <c r="J115" s="13" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>1401</v>
+      <c r="B116" s="13" t="s">
+        <v>1399</v>
       </c>
       <c r="C116" s="12">
         <v>5</v>
@@ -20707,8 +20701,8 @@
       <c r="D116" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>1402</v>
+      <c r="E116" s="13" t="s">
+        <v>1400</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>453</v>
@@ -20720,16 +20714,16 @@
         <v>431</v>
       </c>
       <c r="I116" s="12"/>
-      <c r="J116" s="14" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="13">
+      <c r="J116" s="13" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>1404</v>
+      <c r="B117" s="13" t="s">
+        <v>1402</v>
       </c>
       <c r="C117" s="12">
         <v>5</v>
@@ -20748,16 +20742,16 @@
         <v>298</v>
       </c>
       <c r="I117" s="12"/>
-      <c r="J117" s="14" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
+      <c r="J117" s="13" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A118" s="11">
         <v>117</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>1406</v>
+      <c r="B118" s="13" t="s">
+        <v>1404</v>
       </c>
       <c r="C118" s="12">
         <v>5</v>
@@ -20776,16 +20770,16 @@
         <v>101</v>
       </c>
       <c r="I118" s="12"/>
-      <c r="J118" s="14" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="13">
+      <c r="J118" s="13" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>1408</v>
+      <c r="B119" s="13" t="s">
+        <v>1406</v>
       </c>
       <c r="C119" s="12">
         <v>6</v>
@@ -20793,8 +20787,8 @@
       <c r="D119" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>1409</v>
+      <c r="E119" s="13" t="s">
+        <v>1407</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>464</v>
@@ -20806,16 +20800,16 @@
         <v>953</v>
       </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="14" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
+      <c r="J119" s="13" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A120" s="11">
         <v>119</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>1411</v>
+      <c r="B120" s="13" t="s">
+        <v>1409</v>
       </c>
       <c r="C120" s="12">
         <v>6</v>
@@ -20823,8 +20817,8 @@
       <c r="D120" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="E120" s="14" t="s">
-        <v>1412</v>
+      <c r="E120" s="13" t="s">
+        <v>1410</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>469</v>
@@ -20836,16 +20830,16 @@
         <v>318</v>
       </c>
       <c r="I120" s="12"/>
-      <c r="J120" s="14" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="13">
+      <c r="J120" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A121" s="11">
         <v>120</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>1414</v>
+      <c r="B121" s="13" t="s">
+        <v>1412</v>
       </c>
       <c r="C121" s="12">
         <v>6</v>
@@ -20853,8 +20847,8 @@
       <c r="D121" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="E121" s="14" t="s">
-        <v>1415</v>
+      <c r="E121" s="13" t="s">
+        <v>1413</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>61</v>
@@ -20865,19 +20859,19 @@
       <c r="H121" s="12">
         <v>823</v>
       </c>
-      <c r="I121" s="14" t="s">
+      <c r="I121" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>1416</v>
-      </c>
-      <c r="J121" s="14" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
-        <v>121</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>1418</v>
       </c>
       <c r="C122" s="12">
         <v>6</v>
@@ -20896,16 +20890,16 @@
         <v>77</v>
       </c>
       <c r="I122" s="12"/>
-      <c r="J122" s="14" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="13">
+      <c r="J122" s="13" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>1420</v>
+      <c r="B123" s="13" t="s">
+        <v>1418</v>
       </c>
       <c r="C123" s="12">
         <v>6</v>
@@ -20924,16 +20918,16 @@
         <v>163</v>
       </c>
       <c r="I123" s="12"/>
-      <c r="J123" s="14" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
+      <c r="J123" s="13" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>1422</v>
+      <c r="B124" s="13" t="s">
+        <v>1420</v>
       </c>
       <c r="C124" s="12">
         <v>6</v>
@@ -20952,16 +20946,16 @@
         <v>156</v>
       </c>
       <c r="I124" s="12"/>
-      <c r="J124" s="14" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="13">
+      <c r="J124" s="13" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A125" s="11">
         <v>124</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>1424</v>
+      <c r="B125" s="13" t="s">
+        <v>1422</v>
       </c>
       <c r="C125" s="12">
         <v>6</v>
@@ -20980,16 +20974,16 @@
         <v>220</v>
       </c>
       <c r="I125" s="12"/>
-      <c r="J125" s="14" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
+      <c r="J125" s="13" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>1426</v>
+      <c r="B126" s="13" t="s">
+        <v>1424</v>
       </c>
       <c r="C126" s="12">
         <v>6</v>
@@ -20997,8 +20991,8 @@
       <c r="D126" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="E126" s="14" t="s">
-        <v>1427</v>
+      <c r="E126" s="13" t="s">
+        <v>1425</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>490</v>
@@ -21010,16 +21004,16 @@
         <v>22</v>
       </c>
       <c r="I126" s="12"/>
-      <c r="J126" s="14" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="13">
+      <c r="J126" s="13" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A127" s="11">
         <v>126</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>1429</v>
+      <c r="B127" s="13" t="s">
+        <v>1427</v>
       </c>
       <c r="C127" s="12">
         <v>6</v>
@@ -21038,16 +21032,16 @@
         <v>22</v>
       </c>
       <c r="I127" s="12"/>
-      <c r="J127" s="14" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
+      <c r="J127" s="13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>1431</v>
+      <c r="B128" s="13" t="s">
+        <v>1429</v>
       </c>
       <c r="C128" s="12">
         <v>6</v>
@@ -21066,16 +21060,16 @@
         <v>84</v>
       </c>
       <c r="I128" s="12"/>
-      <c r="J128" s="14" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13">
+      <c r="J128" s="13" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>1433</v>
+      <c r="B129" s="13" t="s">
+        <v>1431</v>
       </c>
       <c r="C129" s="12">
         <v>6</v>
@@ -21094,16 +21088,16 @@
         <v>172</v>
       </c>
       <c r="I129" s="12"/>
-      <c r="J129" s="14" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13">
+      <c r="J129" s="13" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A130" s="11">
         <v>129</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>1435</v>
+      <c r="B130" s="13" t="s">
+        <v>1433</v>
       </c>
       <c r="C130" s="12">
         <v>6</v>
@@ -21122,16 +21116,16 @@
         <v>19</v>
       </c>
       <c r="I130" s="12"/>
-      <c r="J130" s="14" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="13">
+      <c r="J130" s="13" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>1437</v>
+      <c r="B131" s="13" t="s">
+        <v>1435</v>
       </c>
       <c r="C131" s="12">
         <v>6</v>
@@ -21149,19 +21143,19 @@
       <c r="H131" s="12">
         <v>674</v>
       </c>
-      <c r="I131" s="14" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="13">
+      <c r="I131" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>1439</v>
+      <c r="B132" s="13" t="s">
+        <v>1437</v>
       </c>
       <c r="C132" s="12">
         <v>6</v>
@@ -21180,16 +21174,16 @@
         <v>16</v>
       </c>
       <c r="I132" s="12"/>
-      <c r="J132" s="14" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="13">
+      <c r="J132" s="13" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A133" s="11">
         <v>132</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>1441</v>
+      <c r="B133" s="13" t="s">
+        <v>1439</v>
       </c>
       <c r="C133" s="12">
         <v>6</v>
@@ -21208,16 +21202,16 @@
         <v>34</v>
       </c>
       <c r="I133" s="12"/>
-      <c r="J133" s="14" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="J133" s="13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>1443</v>
+      <c r="B134" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="C134" s="12">
         <v>6</v>
@@ -21236,16 +21230,16 @@
         <v>24</v>
       </c>
       <c r="I134" s="12"/>
-      <c r="J134" s="14" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="13">
+      <c r="J134" s="13" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A135" s="11">
         <v>134</v>
       </c>
-      <c r="B135" s="14" t="s">
-        <v>1445</v>
+      <c r="B135" s="13" t="s">
+        <v>1443</v>
       </c>
       <c r="C135" s="12">
         <v>6</v>
@@ -21264,16 +21258,16 @@
         <v>71</v>
       </c>
       <c r="I135" s="12"/>
-      <c r="J135" s="14" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="13">
+      <c r="J135" s="13" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A136" s="11">
         <v>135</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>1447</v>
+      <c r="B136" s="13" t="s">
+        <v>1445</v>
       </c>
       <c r="C136" s="12">
         <v>6</v>
@@ -21292,16 +21286,16 @@
         <v>31</v>
       </c>
       <c r="I136" s="12"/>
-      <c r="J136" s="14" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="13">
+      <c r="J136" s="13" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A137" s="11">
         <v>136</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>1449</v>
+      <c r="B137" s="13" t="s">
+        <v>1447</v>
       </c>
       <c r="C137" s="12">
         <v>6</v>
@@ -21320,16 +21314,16 @@
         <v>10</v>
       </c>
       <c r="I137" s="12"/>
-      <c r="J137" s="14" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="13">
+      <c r="J137" s="13" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>1451</v>
+      <c r="B138" s="13" t="s">
+        <v>1449</v>
       </c>
       <c r="C138" s="12">
         <v>6</v>
@@ -21348,16 +21342,16 @@
         <v>197</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="14" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="13">
+      <c r="J138" s="13" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>1453</v>
+      <c r="B139" s="13" t="s">
+        <v>1451</v>
       </c>
       <c r="C139" s="12">
         <v>6</v>
@@ -21376,16 +21370,16 @@
         <v>5</v>
       </c>
       <c r="I139" s="12"/>
-      <c r="J139" s="14" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="13">
+      <c r="J139" s="13" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>1455</v>
+      <c r="B140" s="13" t="s">
+        <v>1453</v>
       </c>
       <c r="C140" s="12">
         <v>6</v>
@@ -21404,16 +21398,16 @@
         <v>21</v>
       </c>
       <c r="I140" s="12"/>
-      <c r="J140" s="14" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="13">
+      <c r="J140" s="13" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>1457</v>
+      <c r="B141" s="13" t="s">
+        <v>1455</v>
       </c>
       <c r="C141" s="12">
         <v>6</v>
@@ -21421,8 +21415,8 @@
       <c r="D141" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>1458</v>
+      <c r="E141" s="13" t="s">
+        <v>1456</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>546</v>
@@ -21430,22 +21424,22 @@
       <c r="G141" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H141" s="17">
+      <c r="H141" s="15">
         <v>1902</v>
       </c>
-      <c r="I141" s="14" t="s">
+      <c r="I141" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>1459</v>
-      </c>
-      <c r="J141" s="14" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="13">
-        <v>141</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>1461</v>
       </c>
       <c r="C142" s="12">
         <v>6</v>
@@ -21464,16 +21458,16 @@
         <v>114</v>
       </c>
       <c r="I142" s="12"/>
-      <c r="J142" s="14" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="13">
+      <c r="J142" s="13" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>1463</v>
+      <c r="B143" s="13" t="s">
+        <v>1461</v>
       </c>
       <c r="C143" s="12">
         <v>6</v>
@@ -21488,22 +21482,22 @@
       <c r="G143" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="H143" s="17">
+      <c r="H143" s="15">
         <v>1067</v>
       </c>
       <c r="I143" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>1464</v>
-      </c>
-      <c r="J143" s="14" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="13">
-        <v>143</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>1466</v>
       </c>
       <c r="C144" s="12">
         <v>6</v>
@@ -21522,16 +21516,16 @@
         <v>60</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="14" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="13">
+      <c r="J144" s="13" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="11">
         <v>144</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>1468</v>
+      <c r="B145" s="13" t="s">
+        <v>1466</v>
       </c>
       <c r="C145" s="12">
         <v>6</v>
@@ -21550,16 +21544,16 @@
         <v>53</v>
       </c>
       <c r="I145" s="12"/>
-      <c r="J145" s="14" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="J145" s="13" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>1470</v>
+      <c r="B146" s="13" t="s">
+        <v>1468</v>
       </c>
       <c r="C146" s="12">
         <v>6</v>
@@ -21567,8 +21561,8 @@
       <c r="D146" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="E146" s="14" t="s">
-        <v>1471</v>
+      <c r="E146" s="13" t="s">
+        <v>1469</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>10</v>
@@ -21580,16 +21574,16 @@
         <v>607</v>
       </c>
       <c r="I146" s="12"/>
-      <c r="J146" s="14" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="13">
+      <c r="J146" s="13" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>1473</v>
+      <c r="B147" s="13" t="s">
+        <v>1471</v>
       </c>
       <c r="C147" s="12">
         <v>6</v>
@@ -21608,16 +21602,16 @@
         <v>29</v>
       </c>
       <c r="I147" s="12"/>
-      <c r="J147" s="14" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="13">
+      <c r="J147" s="13" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="14" t="s">
-        <v>1475</v>
+      <c r="B148" s="13" t="s">
+        <v>1473</v>
       </c>
       <c r="C148" s="12">
         <v>7</v>
@@ -21635,19 +21629,19 @@
       <c r="H148" s="12">
         <v>161</v>
       </c>
-      <c r="I148" s="14" t="s">
+      <c r="I148" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>1476</v>
-      </c>
-      <c r="J148" s="14" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="13">
-        <v>148</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>1478</v>
       </c>
       <c r="C149" s="12">
         <v>7</v>
@@ -21665,19 +21659,19 @@
       <c r="H149" s="12">
         <v>158</v>
       </c>
-      <c r="I149" s="14" t="s">
+      <c r="I149" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>1479</v>
-      </c>
-      <c r="J149" s="14" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="13">
-        <v>149</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>1481</v>
       </c>
       <c r="C150" s="12">
         <v>7</v>
@@ -21685,8 +21679,8 @@
       <c r="D150" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="E150" s="14" t="s">
-        <v>1482</v>
+      <c r="E150" s="13" t="s">
+        <v>1480</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>583</v>
@@ -21697,19 +21691,19 @@
       <c r="H150" s="12">
         <v>861</v>
       </c>
-      <c r="I150" s="14" t="s">
+      <c r="I150" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>1483</v>
-      </c>
-      <c r="J150" s="14" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="13">
-        <v>150</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>1485</v>
       </c>
       <c r="C151" s="12">
         <v>7</v>
@@ -21728,16 +21722,16 @@
         <v>54</v>
       </c>
       <c r="I151" s="12"/>
-      <c r="J151" s="14" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="13">
+      <c r="J151" s="13" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>1487</v>
+      <c r="B152" s="13" t="s">
+        <v>1485</v>
       </c>
       <c r="C152" s="12">
         <v>7</v>
@@ -21756,16 +21750,16 @@
         <v>68</v>
       </c>
       <c r="I152" s="12"/>
-      <c r="J152" s="14" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="13">
+      <c r="J152" s="13" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="14" t="s">
-        <v>1489</v>
+      <c r="B153" s="13" t="s">
+        <v>1487</v>
       </c>
       <c r="C153" s="12">
         <v>7</v>
@@ -21784,16 +21778,16 @@
         <v>148</v>
       </c>
       <c r="I153" s="12"/>
-      <c r="J153" s="14" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="13">
+      <c r="J153" s="13" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>1491</v>
+      <c r="B154" s="13" t="s">
+        <v>1489</v>
       </c>
       <c r="C154" s="12">
         <v>7</v>
@@ -21812,16 +21806,16 @@
         <v>140</v>
       </c>
       <c r="I154" s="12"/>
-      <c r="J154" s="14" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="13">
+      <c r="J154" s="13" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A155" s="11">
         <v>154</v>
       </c>
-      <c r="B155" s="14" t="s">
-        <v>1493</v>
+      <c r="B155" s="13" t="s">
+        <v>1491</v>
       </c>
       <c r="C155" s="12">
         <v>7</v>
@@ -21839,19 +21833,19 @@
       <c r="H155" s="12">
         <v>277</v>
       </c>
-      <c r="I155" s="14" t="s">
+      <c r="I155" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>1494</v>
-      </c>
-      <c r="J155" s="14" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="13">
-        <v>155</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>1496</v>
       </c>
       <c r="C156" s="12">
         <v>7</v>
@@ -21870,16 +21864,16 @@
         <v>31</v>
       </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="14" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="13">
+      <c r="J156" s="13" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A157" s="11">
         <v>156</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>1498</v>
+      <c r="B157" s="13" t="s">
+        <v>1496</v>
       </c>
       <c r="C157" s="12">
         <v>7</v>
@@ -21898,16 +21892,16 @@
         <v>285</v>
       </c>
       <c r="I157" s="12"/>
-      <c r="J157" s="14" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="13">
+      <c r="J157" s="13" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>1500</v>
+      <c r="B158" s="13" t="s">
+        <v>1498</v>
       </c>
       <c r="C158" s="12">
         <v>7</v>
@@ -21915,8 +21909,8 @@
       <c r="D158" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="E158" s="14" t="s">
-        <v>1501</v>
+      <c r="E158" s="13" t="s">
+        <v>1499</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>613</v>
@@ -21928,16 +21922,16 @@
         <v>580</v>
       </c>
       <c r="I158" s="12"/>
-      <c r="J158" s="14" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="13">
+      <c r="J158" s="13" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>1503</v>
+      <c r="B159" s="13" t="s">
+        <v>1501</v>
       </c>
       <c r="C159" s="12">
         <v>7</v>
@@ -21956,16 +21950,16 @@
         <v>97</v>
       </c>
       <c r="I159" s="12"/>
-      <c r="J159" s="14" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="13">
+      <c r="J159" s="13" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>1505</v>
+      <c r="B160" s="13" t="s">
+        <v>1503</v>
       </c>
       <c r="C160" s="12">
         <v>7</v>
@@ -21973,8 +21967,8 @@
       <c r="D160" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="E160" s="14" t="s">
-        <v>1506</v>
+      <c r="E160" s="13" t="s">
+        <v>1504</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>622</v>
@@ -21985,19 +21979,19 @@
       <c r="H160" s="12">
         <v>361</v>
       </c>
-      <c r="I160" s="14" t="s">
+      <c r="I160" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>1507</v>
-      </c>
-      <c r="J160" s="14" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="13">
-        <v>160</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>1509</v>
       </c>
       <c r="C161" s="12">
         <v>7</v>
@@ -22016,16 +22010,16 @@
         <v>36</v>
       </c>
       <c r="I161" s="12"/>
-      <c r="J161" s="14" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="13">
+      <c r="J161" s="13" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>1511</v>
+      <c r="B162" s="13" t="s">
+        <v>1509</v>
       </c>
       <c r="C162" s="12">
         <v>7</v>
@@ -22044,16 +22038,16 @@
         <v>15</v>
       </c>
       <c r="I162" s="12"/>
-      <c r="J162" s="14" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="13">
+      <c r="J162" s="13" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="14" t="s">
-        <v>1513</v>
+      <c r="B163" s="13" t="s">
+        <v>1511</v>
       </c>
       <c r="C163" s="12">
         <v>7</v>
@@ -22061,8 +22055,8 @@
       <c r="D163" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="E163" s="14" t="s">
-        <v>1514</v>
+      <c r="E163" s="13" t="s">
+        <v>1512</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>633</v>
@@ -22074,16 +22068,16 @@
         <v>381</v>
       </c>
       <c r="I163" s="12"/>
-      <c r="J163" s="14" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="13">
+      <c r="J163" s="13" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="14" t="s">
-        <v>1516</v>
+      <c r="B164" s="13" t="s">
+        <v>1514</v>
       </c>
       <c r="C164" s="12">
         <v>7</v>
@@ -22091,8 +22085,8 @@
       <c r="D164" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="E164" s="14" t="s">
-        <v>1517</v>
+      <c r="E164" s="13" t="s">
+        <v>1515</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>236</v>
@@ -22104,16 +22098,16 @@
         <v>350</v>
       </c>
       <c r="I164" s="12"/>
-      <c r="J164" s="14" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="13">
+      <c r="J164" s="13" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="14" t="s">
-        <v>1519</v>
+      <c r="B165" s="13" t="s">
+        <v>1517</v>
       </c>
       <c r="C165" s="12">
         <v>7</v>
@@ -22132,16 +22126,16 @@
         <v>290</v>
       </c>
       <c r="I165" s="12"/>
-      <c r="J165" s="14" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="13">
+      <c r="J165" s="13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="11">
         <v>165</v>
       </c>
-      <c r="B166" s="14" t="s">
-        <v>1521</v>
+      <c r="B166" s="13" t="s">
+        <v>1519</v>
       </c>
       <c r="C166" s="12">
         <v>7</v>
@@ -22160,16 +22154,16 @@
         <v>14</v>
       </c>
       <c r="I166" s="12"/>
-      <c r="J166" s="14" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="13">
+      <c r="J166" s="13" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A167" s="11">
         <v>166</v>
       </c>
-      <c r="B167" s="14" t="s">
-        <v>1523</v>
+      <c r="B167" s="13" t="s">
+        <v>1521</v>
       </c>
       <c r="C167" s="12">
         <v>7</v>
@@ -22188,16 +22182,16 @@
         <v>14</v>
       </c>
       <c r="I167" s="12"/>
-      <c r="J167" s="14" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="13">
+      <c r="J167" s="13" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A168" s="11">
         <v>167</v>
       </c>
-      <c r="B168" s="14" t="s">
-        <v>1525</v>
+      <c r="B168" s="13" t="s">
+        <v>1523</v>
       </c>
       <c r="C168" s="12">
         <v>8</v>
@@ -22205,8 +22199,8 @@
       <c r="D168" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="E168" s="14" t="s">
-        <v>1526</v>
+      <c r="E168" s="13" t="s">
+        <v>1524</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>209</v>
@@ -22217,19 +22211,19 @@
       <c r="H168" s="12">
         <v>806</v>
       </c>
-      <c r="I168" s="14" t="s">
+      <c r="I168" s="13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>1527</v>
-      </c>
-      <c r="J168" s="14" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="13">
-        <v>168</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>1529</v>
       </c>
       <c r="C169" s="12">
         <v>8</v>
@@ -22247,19 +22241,19 @@
       <c r="H169" s="12">
         <v>55</v>
       </c>
-      <c r="I169" s="14" t="s">
+      <c r="I169" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="13" t="s">
         <v>1530</v>
-      </c>
-      <c r="J169" s="14" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="13">
-        <v>169</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>1532</v>
       </c>
       <c r="C170" s="12">
         <v>8</v>
@@ -22267,8 +22261,8 @@
       <c r="D170" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="E170" s="14" t="s">
-        <v>1533</v>
+      <c r="E170" s="13" t="s">
+        <v>1531</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>661</v>
@@ -22279,19 +22273,19 @@
       <c r="H170" s="12">
         <v>246</v>
       </c>
-      <c r="I170" s="14" t="s">
+      <c r="I170" s="13" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>1534</v>
-      </c>
-      <c r="J170" s="14" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="13">
-        <v>170</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>1536</v>
       </c>
       <c r="C171" s="12">
         <v>8</v>
@@ -22310,16 +22304,16 @@
         <v>348</v>
       </c>
       <c r="I171" s="12"/>
-      <c r="J171" s="14" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="13">
+      <c r="J171" s="13" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A172" s="11">
         <v>171</v>
       </c>
-      <c r="B172" s="14" t="s">
-        <v>1538</v>
+      <c r="B172" s="13" t="s">
+        <v>1536</v>
       </c>
       <c r="C172" s="12">
         <v>8</v>
@@ -22338,16 +22332,16 @@
         <v>12</v>
       </c>
       <c r="I172" s="12"/>
-      <c r="J172" s="18" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="13">
+      <c r="J172" s="16" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="11">
         <v>172</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>1540</v>
+      <c r="B173" s="13" t="s">
+        <v>1538</v>
       </c>
       <c r="C173" s="12">
         <v>8</v>
@@ -22366,16 +22360,16 @@
         <v>233</v>
       </c>
       <c r="I173" s="12"/>
-      <c r="J173" s="14" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="13">
+      <c r="J173" s="13" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A174" s="11">
         <v>173</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>1542</v>
+      <c r="B174" s="13" t="s">
+        <v>1540</v>
       </c>
       <c r="C174" s="12">
         <v>8</v>
@@ -22394,16 +22388,16 @@
         <v>298</v>
       </c>
       <c r="I174" s="12"/>
-      <c r="J174" s="14" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="13">
+      <c r="J174" s="13" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A175" s="11">
         <v>174</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>1544</v>
+      <c r="B175" s="13" t="s">
+        <v>1542</v>
       </c>
       <c r="C175" s="12">
         <v>8</v>
@@ -22422,16 +22416,16 @@
         <v>17</v>
       </c>
       <c r="I175" s="12"/>
-      <c r="J175" s="14" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="13">
+      <c r="J175" s="13" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A176" s="11">
         <v>175</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>1546</v>
+      <c r="B176" s="13" t="s">
+        <v>1544</v>
       </c>
       <c r="C176" s="12">
         <v>8</v>
@@ -22450,16 +22444,16 @@
         <v>25</v>
       </c>
       <c r="I176" s="12"/>
-      <c r="J176" s="14" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="13">
+      <c r="J176" s="13" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A177" s="11">
         <v>176</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>1548</v>
+      <c r="B177" s="13" t="s">
+        <v>1546</v>
       </c>
       <c r="C177" s="12">
         <v>9</v>
@@ -22478,16 +22472,16 @@
         <v>66</v>
       </c>
       <c r="I177" s="12"/>
-      <c r="J177" s="14" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="13">
+      <c r="J177" s="13" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A178" s="11">
         <v>177</v>
       </c>
-      <c r="B178" s="14" t="s">
-        <v>1550</v>
+      <c r="B178" s="13" t="s">
+        <v>1548</v>
       </c>
       <c r="C178" s="12">
         <v>9</v>
@@ -22506,16 +22500,16 @@
         <v>305</v>
       </c>
       <c r="I178" s="12"/>
-      <c r="J178" s="14" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="13">
+      <c r="J178" s="13" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="11">
         <v>178</v>
       </c>
-      <c r="B179" s="14" t="s">
-        <v>1552</v>
+      <c r="B179" s="13" t="s">
+        <v>1550</v>
       </c>
       <c r="C179" s="12">
         <v>9</v>
@@ -22533,19 +22527,19 @@
       <c r="H179" s="12">
         <v>100</v>
       </c>
-      <c r="I179" s="14" t="s">
+      <c r="I179" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A180" s="11">
+        <v>179</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>1553</v>
-      </c>
-      <c r="J179" s="14" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="13">
-        <v>179</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>1555</v>
       </c>
       <c r="C180" s="12">
         <v>9</v>
@@ -22564,16 +22558,16 @@
         <v>20</v>
       </c>
       <c r="I180" s="12"/>
-      <c r="J180" s="14" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="13">
+      <c r="J180" s="13" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A181" s="11">
         <v>180</v>
       </c>
-      <c r="B181" s="14" t="s">
-        <v>1557</v>
+      <c r="B181" s="13" t="s">
+        <v>1555</v>
       </c>
       <c r="C181" s="12">
         <v>9</v>
@@ -22592,16 +22586,16 @@
         <v>43</v>
       </c>
       <c r="I181" s="12"/>
-      <c r="J181" s="14" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="13">
+      <c r="J181" s="13" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A182" s="11">
         <v>181</v>
       </c>
-      <c r="B182" s="14" t="s">
-        <v>1559</v>
+      <c r="B182" s="13" t="s">
+        <v>1557</v>
       </c>
       <c r="C182" s="12">
         <v>9</v>
@@ -22619,19 +22613,19 @@
       <c r="H182" s="12">
         <v>372</v>
       </c>
-      <c r="I182" s="14" t="s">
+      <c r="I182" s="13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>1560</v>
-      </c>
-      <c r="J182" s="14" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="13">
-        <v>182</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>1562</v>
       </c>
       <c r="C183" s="12">
         <v>9</v>
@@ -22649,19 +22643,19 @@
       <c r="H183" s="12">
         <v>182</v>
       </c>
-      <c r="I183" s="14" t="s">
+      <c r="I183" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="13" t="s">
         <v>1563</v>
-      </c>
-      <c r="J183" s="14" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="13">
-        <v>183</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>1565</v>
       </c>
       <c r="C184" s="12">
         <v>9</v>
@@ -22679,19 +22673,19 @@
       <c r="H184" s="12">
         <v>92</v>
       </c>
-      <c r="I184" s="14" t="s">
+      <c r="I184" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A185" s="11">
+        <v>184</v>
+      </c>
+      <c r="B185" s="13" t="s">
         <v>1566</v>
-      </c>
-      <c r="J184" s="14" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="13">
-        <v>184</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>1568</v>
       </c>
       <c r="C185" s="12">
         <v>9</v>
@@ -22699,8 +22693,8 @@
       <c r="D185" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="E185" s="14" t="s">
-        <v>1569</v>
+      <c r="E185" s="13" t="s">
+        <v>1567</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>104</v>
@@ -22711,19 +22705,19 @@
       <c r="H185" s="12">
         <v>403</v>
       </c>
-      <c r="I185" s="14" t="s">
+      <c r="I185" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>1570</v>
-      </c>
-      <c r="J185" s="14" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="13">
-        <v>185</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>1572</v>
       </c>
       <c r="C186" s="12">
         <v>9</v>
@@ -22742,16 +22736,16 @@
         <v>20</v>
       </c>
       <c r="I186" s="12"/>
-      <c r="J186" s="14" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="13">
+      <c r="J186" s="13" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="14" t="s">
-        <v>1574</v>
+      <c r="B187" s="13" t="s">
+        <v>1572</v>
       </c>
       <c r="C187" s="12">
         <v>9</v>
@@ -22770,16 +22764,16 @@
         <v>37</v>
       </c>
       <c r="I187" s="12"/>
-      <c r="J187" s="14" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="13">
+      <c r="J187" s="13" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A188" s="11">
         <v>187</v>
       </c>
-      <c r="B188" s="14" t="s">
-        <v>1576</v>
+      <c r="B188" s="13" t="s">
+        <v>1574</v>
       </c>
       <c r="C188" s="12">
         <v>10</v>
@@ -22797,19 +22791,19 @@
       <c r="H188" s="12">
         <v>472</v>
       </c>
-      <c r="I188" s="14" t="s">
+      <c r="I188" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J188" s="13" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A189" s="11">
+        <v>188</v>
+      </c>
+      <c r="B189" s="13" t="s">
         <v>1577</v>
-      </c>
-      <c r="J188" s="14" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="13">
-        <v>188</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>1579</v>
       </c>
       <c r="C189" s="12">
         <v>10</v>
@@ -22827,19 +22821,19 @@
       <c r="H189" s="12">
         <v>185</v>
       </c>
-      <c r="I189" s="14" t="s">
+      <c r="I189" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+      <c r="B190" s="13" t="s">
         <v>1580</v>
-      </c>
-      <c r="J189" s="14" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="13">
-        <v>189</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>1582</v>
       </c>
       <c r="C190" s="12">
         <v>10</v>
@@ -22858,16 +22852,16 @@
         <v>34</v>
       </c>
       <c r="I190" s="12"/>
-      <c r="J190" s="14" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="13">
+      <c r="J190" s="13" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>1584</v>
+      <c r="B191" s="13" t="s">
+        <v>1582</v>
       </c>
       <c r="C191" s="12">
         <v>10</v>
@@ -22886,16 +22880,16 @@
         <v>243</v>
       </c>
       <c r="I191" s="12"/>
-      <c r="J191" s="14" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="13">
+      <c r="J191" s="13" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A192" s="11">
         <v>191</v>
       </c>
-      <c r="B192" s="14" t="s">
-        <v>1586</v>
+      <c r="B192" s="13" t="s">
+        <v>1584</v>
       </c>
       <c r="C192" s="12">
         <v>10</v>
@@ -22914,16 +22908,16 @@
         <v>23</v>
       </c>
       <c r="I192" s="12"/>
-      <c r="J192" s="14" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="13">
+      <c r="J192" s="13" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="14" t="s">
-        <v>1588</v>
+      <c r="B193" s="13" t="s">
+        <v>1586</v>
       </c>
       <c r="C193" s="12">
         <v>10</v>
@@ -22942,16 +22936,16 @@
         <v>8</v>
       </c>
       <c r="I193" s="12"/>
-      <c r="J193" s="14" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="13">
+      <c r="J193" s="13" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A194" s="11">
         <v>193</v>
       </c>
-      <c r="B194" s="14" t="s">
-        <v>1590</v>
+      <c r="B194" s="13" t="s">
+        <v>1588</v>
       </c>
       <c r="C194" s="12">
         <v>10</v>
@@ -22970,16 +22964,16 @@
         <v>73</v>
       </c>
       <c r="I194" s="12"/>
-      <c r="J194" s="14" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="13">
+      <c r="J194" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="14" t="s">
-        <v>1592</v>
+      <c r="B195" s="13" t="s">
+        <v>1590</v>
       </c>
       <c r="C195" s="12">
         <v>10</v>
@@ -22998,16 +22992,16 @@
         <v>141</v>
       </c>
       <c r="I195" s="12"/>
-      <c r="J195" s="14" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="13">
+      <c r="J195" s="13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A196" s="11">
         <v>195</v>
       </c>
-      <c r="B196" s="14" t="s">
-        <v>1594</v>
+      <c r="B196" s="13" t="s">
+        <v>1592</v>
       </c>
       <c r="C196" s="12">
         <v>11</v>
@@ -23025,19 +23019,19 @@
       <c r="H196" s="12">
         <v>571</v>
       </c>
-      <c r="I196" s="14" t="s">
+      <c r="I196" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A197" s="11">
+        <v>196</v>
+      </c>
+      <c r="B197" s="13" t="s">
         <v>1595</v>
-      </c>
-      <c r="J196" s="14" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="13">
-        <v>196</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>1597</v>
       </c>
       <c r="C197" s="12">
         <v>11</v>
@@ -23055,19 +23049,19 @@
       <c r="H197" s="12">
         <v>750</v>
       </c>
-      <c r="I197" s="14" t="s">
+      <c r="I197" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J197" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A198" s="11">
+        <v>197</v>
+      </c>
+      <c r="B198" s="13" t="s">
         <v>1598</v>
-      </c>
-      <c r="J197" s="14" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="13">
-        <v>197</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>1600</v>
       </c>
       <c r="C198" s="12">
         <v>11</v>
@@ -23085,19 +23079,19 @@
       <c r="H198" s="12">
         <v>44</v>
       </c>
-      <c r="I198" s="14" t="s">
+      <c r="I198" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J198" s="13" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>1601</v>
-      </c>
-      <c r="J198" s="14" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="13">
-        <v>198</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>1603</v>
       </c>
       <c r="C199" s="12">
         <v>11</v>
@@ -23116,16 +23110,16 @@
         <v>104</v>
       </c>
       <c r="I199" s="12"/>
-      <c r="J199" s="14" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="13">
+      <c r="J199" s="13" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A200" s="11">
         <v>199</v>
       </c>
-      <c r="B200" s="14" t="s">
-        <v>1605</v>
+      <c r="B200" s="13" t="s">
+        <v>1603</v>
       </c>
       <c r="C200" s="12">
         <v>11</v>
@@ -23143,19 +23137,19 @@
       <c r="H200" s="12">
         <v>131</v>
       </c>
-      <c r="I200" s="14" t="s">
+      <c r="I200" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A201" s="11">
+        <v>200</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>1606</v>
-      </c>
-      <c r="J200" s="14" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A201" s="13">
-        <v>200</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>1608</v>
       </c>
       <c r="C201" s="12">
         <v>11</v>
@@ -23174,16 +23168,16 @@
         <v>34</v>
       </c>
       <c r="I201" s="12"/>
-      <c r="J201" s="14" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="13">
+      <c r="J201" s="13" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A202" s="11">
         <v>201</v>
       </c>
-      <c r="B202" s="14" t="s">
-        <v>1610</v>
+      <c r="B202" s="13" t="s">
+        <v>1608</v>
       </c>
       <c r="C202" s="12">
         <v>12</v>
@@ -23201,19 +23195,19 @@
       <c r="H202" s="12">
         <v>42</v>
       </c>
-      <c r="I202" s="14" t="s">
+      <c r="I202" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J202" s="13" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A203" s="11">
+        <v>202</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>1611</v>
-      </c>
-      <c r="J202" s="14" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="13">
-        <v>202</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>1613</v>
       </c>
       <c r="C203" s="12">
         <v>12</v>
@@ -23232,16 +23226,16 @@
         <v>46</v>
       </c>
       <c r="I203" s="12"/>
-      <c r="J203" s="14" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="13">
+      <c r="J203" s="13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A204" s="11">
         <v>203</v>
       </c>
-      <c r="B204" s="14" t="s">
-        <v>1615</v>
+      <c r="B204" s="13" t="s">
+        <v>1613</v>
       </c>
       <c r="C204" s="12">
         <v>12</v>
@@ -23260,16 +23254,16 @@
         <v>172</v>
       </c>
       <c r="I204" s="12"/>
-      <c r="J204" s="14" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="13">
+      <c r="J204" s="13" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="14" t="s">
-        <v>1617</v>
+      <c r="B205" s="13" t="s">
+        <v>1615</v>
       </c>
       <c r="C205" s="12">
         <v>12</v>
@@ -23288,16 +23282,16 @@
         <v>8</v>
       </c>
       <c r="I205" s="12"/>
-      <c r="J205" s="14" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="13">
+      <c r="J205" s="13" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A206" s="11">
         <v>205</v>
       </c>
-      <c r="B206" s="14" t="s">
-        <v>1619</v>
+      <c r="B206" s="13" t="s">
+        <v>1617</v>
       </c>
       <c r="C206" s="12">
         <v>13</v>
@@ -23315,19 +23309,19 @@
       <c r="H206" s="12">
         <v>40</v>
       </c>
-      <c r="I206" s="14" t="s">
+      <c r="I206" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A207" s="11">
+        <v>206</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>1620</v>
-      </c>
-      <c r="J206" s="14" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="13">
-        <v>206</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>1622</v>
       </c>
       <c r="C207" s="12">
         <v>13</v>
@@ -23346,16 +23340,16 @@
         <v>14</v>
       </c>
       <c r="I207" s="12"/>
-      <c r="J207" s="14" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="13">
+      <c r="J207" s="13" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A208" s="11">
         <v>207</v>
       </c>
-      <c r="B208" s="14" t="s">
-        <v>1624</v>
+      <c r="B208" s="13" t="s">
+        <v>1622</v>
       </c>
       <c r="C208" s="12">
         <v>13</v>
@@ -23374,16 +23368,16 @@
         <v>46</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="14" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="13">
+      <c r="J208" s="13" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="14" t="s">
-        <v>1626</v>
+      <c r="B209" s="13" t="s">
+        <v>1624</v>
       </c>
       <c r="C209" s="12">
         <v>13</v>
@@ -23402,16 +23396,16 @@
         <v>92</v>
       </c>
       <c r="I209" s="12"/>
-      <c r="J209" s="14" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="13">
+      <c r="J209" s="13" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A210" s="11">
         <v>209</v>
       </c>
-      <c r="B210" s="14" t="s">
-        <v>1628</v>
+      <c r="B210" s="13" t="s">
+        <v>1626</v>
       </c>
       <c r="C210" s="12">
         <v>14</v>
@@ -23430,16 +23424,16 @@
         <v>49</v>
       </c>
       <c r="I210" s="12"/>
-      <c r="J210" s="14" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="13">
+      <c r="J210" s="13" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A211" s="11">
         <v>210</v>
       </c>
-      <c r="B211" s="14" t="s">
-        <v>1630</v>
+      <c r="B211" s="13" t="s">
+        <v>1628</v>
       </c>
       <c r="C211" s="12">
         <v>14</v>
@@ -23457,19 +23451,19 @@
       <c r="H211" s="12">
         <v>18</v>
       </c>
-      <c r="I211" s="14" t="s">
+      <c r="I211" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A212" s="11">
+        <v>211</v>
+      </c>
+      <c r="B212" s="13" t="s">
         <v>1631</v>
-      </c>
-      <c r="J211" s="14" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="13">
-        <v>211</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>1633</v>
       </c>
       <c r="C212" s="12">
         <v>15</v>
@@ -23487,19 +23481,19 @@
       <c r="H212" s="12">
         <v>162</v>
       </c>
-      <c r="I212" s="14" t="s">
+      <c r="I212" s="13" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J212" s="13" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A213" s="11">
+        <v>212</v>
+      </c>
+      <c r="B213" s="13" t="s">
         <v>1634</v>
-      </c>
-      <c r="J212" s="14" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="13">
-        <v>212</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>1636</v>
       </c>
       <c r="C213" s="12">
         <v>16</v>
@@ -23517,19 +23511,19 @@
       <c r="H213" s="12">
         <v>14</v>
       </c>
-      <c r="I213" s="14" t="s">
+      <c r="I213" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J213" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A214" s="11">
+        <v>213</v>
+      </c>
+      <c r="B214" s="13" t="s">
         <v>1637</v>
-      </c>
-      <c r="J213" s="14" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="13">
-        <v>213</v>
-      </c>
-      <c r="B214" s="14" t="s">
-        <v>1639</v>
       </c>
       <c r="C214" s="12">
         <v>16</v>
@@ -23547,19 +23541,19 @@
       <c r="H214" s="12">
         <v>24</v>
       </c>
-      <c r="I214" s="14" t="s">
+      <c r="I214" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J214" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="A215" s="11">
+        <v>214</v>
+      </c>
+      <c r="B215" s="13" t="s">
         <v>1640</v>
-      </c>
-      <c r="J214" s="14" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="13">
-        <v>214</v>
-      </c>
-      <c r="B215" s="14" t="s">
-        <v>1642</v>
       </c>
       <c r="C215" s="12">
         <v>17</v>
@@ -23578,15 +23572,12 @@
         <v>19</v>
       </c>
       <c r="I215" s="12"/>
-      <c r="J215" s="14" t="s">
-        <v>1643</v>
+      <c r="J215" s="13" t="s">
+        <v>1641</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1" location="cite_note-1" display="https://en.m.wikipedia.org/wiki/Kangxi_radical - cite_note-1" xr:uid="{E1196DD8-4769-42AA-93E3-D22995B440CF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>